--- a/Code/Results/Cases/Case_3_182/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_182/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.22303226552782</v>
+        <v>1.284767783027405</v>
       </c>
       <c r="C2">
-        <v>0.8282079164388279</v>
+        <v>0.2638960490923239</v>
       </c>
       <c r="D2">
-        <v>0.2174346674608927</v>
+        <v>0.2453400986128003</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.494382634657455</v>
+        <v>1.667739334718291</v>
       </c>
       <c r="G2">
-        <v>1.06392808532091</v>
+        <v>0.9777017153308094</v>
       </c>
       <c r="H2">
-        <v>0.6249953612950492</v>
+        <v>0.9546698591763203</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4457350765788846</v>
+        <v>0.3492363118898965</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.5598605535042402</v>
+        <v>1.115625055482166</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.789907460110271</v>
+        <v>1.166196123525538</v>
       </c>
       <c r="C3">
-        <v>0.7174670376863048</v>
+        <v>0.2323419556084332</v>
       </c>
       <c r="D3">
-        <v>0.1931399407529</v>
+        <v>0.2400956524805054</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.352636097490716</v>
+        <v>1.647182596362242</v>
       </c>
       <c r="G3">
-        <v>0.9543653327083632</v>
+        <v>0.9600047766263344</v>
       </c>
       <c r="H3">
-        <v>0.5827227299783999</v>
+        <v>0.9527192173408849</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3920439878531425</v>
+        <v>0.3379428821024959</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6026438189085415</v>
+        <v>1.132091594119473</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.526377263874281</v>
+        <v>1.093786557672786</v>
       </c>
       <c r="C4">
-        <v>0.6499651933784207</v>
+        <v>0.2129811081162245</v>
       </c>
       <c r="D4">
-        <v>0.178425362903738</v>
+        <v>0.2369705582724606</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.269165753448817</v>
+        <v>1.635756539032968</v>
       </c>
       <c r="G4">
-        <v>0.8899976870151676</v>
+        <v>0.949973871096347</v>
       </c>
       <c r="H4">
-        <v>0.5583637444083109</v>
+        <v>0.9521388886133764</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3598303874823046</v>
+        <v>0.3312283164755172</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6301959644022563</v>
+        <v>1.142736083101809</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.419497567490907</v>
+        <v>1.064378089576508</v>
       </c>
       <c r="C5">
-        <v>0.6225580030285869</v>
+        <v>0.2050947716413134</v>
       </c>
       <c r="D5">
-        <v>0.1724745953831928</v>
+        <v>0.2357209969206622</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.235966189416871</v>
+        <v>1.631399869335127</v>
       </c>
       <c r="G5">
-        <v>0.8644289877035618</v>
+        <v>0.9460949653806239</v>
       </c>
       <c r="H5">
-        <v>0.548806910952834</v>
+        <v>0.952057214960206</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3468716474272924</v>
+        <v>0.328547053159582</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6417335659292309</v>
+        <v>1.147207913221489</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.401778495527424</v>
+        <v>1.059500815836202</v>
       </c>
       <c r="C6">
-        <v>0.6180124630374451</v>
+        <v>0.2037854541345325</v>
       </c>
       <c r="D6">
-        <v>0.1714890762650185</v>
+        <v>0.2355149555389602</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.230500424579375</v>
+        <v>1.630694505255192</v>
       </c>
       <c r="G6">
-        <v>0.8602213733983888</v>
+        <v>0.9454634496840413</v>
       </c>
       <c r="H6">
-        <v>0.5472414459717214</v>
+        <v>0.9520529911085163</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3447294620118839</v>
+        <v>0.3281051444963339</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6436677367807011</v>
+        <v>1.147958552934494</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.524933898326481</v>
+        <v>1.093389543902276</v>
       </c>
       <c r="C7">
-        <v>0.6495951940858902</v>
+        <v>0.2128747366235473</v>
       </c>
       <c r="D7">
-        <v>0.1783449311779322</v>
+        <v>0.2369536092544138</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.268714813654626</v>
+        <v>1.635696572182468</v>
       </c>
       <c r="G7">
-        <v>0.8896502667487596</v>
+        <v>0.9499207151335014</v>
       </c>
       <c r="H7">
-        <v>0.5582334012599546</v>
+        <v>0.9521371608688725</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.359654965177441</v>
+        <v>0.3311919337547948</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6303503260044394</v>
+        <v>1.142795848954307</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.073130960438618</v>
+        <v>1.243802453991123</v>
       </c>
       <c r="C8">
-        <v>0.7899071163510314</v>
+        <v>0.253013369832729</v>
       </c>
       <c r="D8">
-        <v>0.2090124484862628</v>
+        <v>0.2435121186358202</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.444718577343309</v>
+        <v>1.660402453313665</v>
       </c>
       <c r="G8">
-        <v>1.025505072885252</v>
+        <v>0.9714257447774912</v>
       </c>
       <c r="H8">
-        <v>0.610068470082652</v>
+        <v>0.9538688796606607</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4270530914345727</v>
+        <v>0.3452965912638462</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5743379567121814</v>
+        <v>1.121191799347397</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.172004902907247</v>
+        <v>1.541905582293566</v>
       </c>
       <c r="C9">
-        <v>1.070162509588528</v>
+        <v>0.3318376098266356</v>
       </c>
       <c r="D9">
-        <v>0.2710260132662512</v>
+        <v>0.2571261240847065</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.822111266001386</v>
+        <v>1.718397135132378</v>
       </c>
       <c r="G9">
-        <v>1.318352459490114</v>
+        <v>1.020281844194045</v>
       </c>
       <c r="H9">
-        <v>0.725956817041407</v>
+        <v>0.9621843780062136</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5662267523517954</v>
+        <v>0.3747119994741297</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.4753023168980377</v>
+        <v>1.083069679409995</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.001242921797996</v>
+        <v>1.762888176602587</v>
       </c>
       <c r="C10">
-        <v>1.281031312938183</v>
+        <v>0.3898319845499145</v>
       </c>
       <c r="D10">
-        <v>0.3181464487200998</v>
+        <v>0.2675871360690394</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.125179592718624</v>
+        <v>1.766913295415279</v>
       </c>
       <c r="G10">
-        <v>1.554848405396143</v>
+        <v>1.060338430799675</v>
       </c>
       <c r="H10">
-        <v>0.8222022754737566</v>
+        <v>0.9713244547019428</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6743475083410004</v>
+        <v>0.3974155006022357</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4100795918019386</v>
+        <v>1.0576566177925</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.385097812854724</v>
+        <v>1.863858268641138</v>
       </c>
       <c r="C11">
-        <v>1.378511375077153</v>
+        <v>0.4162363507829809</v>
       </c>
       <c r="D11">
-        <v>0.3400266483462389</v>
+        <v>0.2724458327740535</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.270206589364577</v>
+        <v>1.790286827347458</v>
       </c>
       <c r="G11">
-        <v>1.668391071507415</v>
+        <v>1.079484097221268</v>
       </c>
       <c r="H11">
-        <v>0.8690098556382679</v>
+        <v>0.9761476343954598</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7252152154265161</v>
+        <v>0.4079858486428236</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.3822850047396678</v>
+        <v>1.046661003886914</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.53158169351741</v>
+        <v>1.902157381051666</v>
       </c>
       <c r="C12">
-        <v>1.415692757569786</v>
+        <v>0.4262383725887844</v>
       </c>
       <c r="D12">
-        <v>0.3483859816866044</v>
+        <v>0.2743000448542432</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.326300907812183</v>
+        <v>1.799326646775</v>
       </c>
       <c r="G12">
-        <v>1.712368699752858</v>
+        <v>1.086868354273776</v>
       </c>
       <c r="H12">
-        <v>0.887227668225421</v>
+        <v>0.978070256937059</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7447580333315074</v>
+        <v>0.4120237623592686</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.3720525067659537</v>
+        <v>1.042578687994244</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.499980700861272</v>
+        <v>1.893906137088493</v>
       </c>
       <c r="C13">
-        <v>1.407672408424048</v>
+        <v>0.4240841125620136</v>
       </c>
       <c r="D13">
-        <v>0.346582199864315</v>
+        <v>0.2739000704495567</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.314165187597737</v>
+        <v>1.797371342519966</v>
       </c>
       <c r="G13">
-        <v>1.702851537843571</v>
+        <v>1.085272031364013</v>
       </c>
       <c r="H13">
-        <v>0.8832812250500695</v>
+        <v>0.9776518994225682</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7405360103758198</v>
+        <v>0.4111525572632928</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.3742428456046518</v>
+        <v>1.043454259649842</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.397125492706834</v>
+        <v>1.8670078778689</v>
       </c>
       <c r="C14">
-        <v>1.381564669988677</v>
+        <v>0.4170591575513072</v>
       </c>
       <c r="D14">
-        <v>0.3407128368462509</v>
+        <v>0.2725980929707248</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.274797040115899</v>
+        <v>1.791026747662983</v>
       </c>
       <c r="G14">
-        <v>1.671988701334499</v>
+        <v>1.080088906818077</v>
       </c>
       <c r="H14">
-        <v>0.8704984141683667</v>
+        <v>0.9763038789491247</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.7268171607324234</v>
+        <v>0.408317344032298</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.3814371635705953</v>
+        <v>1.046323514770865</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.334275872012256</v>
+        <v>1.850540245804893</v>
       </c>
       <c r="C15">
-        <v>1.365609206585418</v>
+        <v>0.4127565956366652</v>
       </c>
       <c r="D15">
-        <v>0.3371276010849584</v>
+        <v>0.271802459056218</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.25084066152553</v>
+        <v>1.787165124137289</v>
       </c>
       <c r="G15">
-        <v>1.653216086581267</v>
+        <v>1.076931612397459</v>
       </c>
       <c r="H15">
-        <v>0.8627345818833021</v>
+        <v>0.9754907196145268</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7184516913029171</v>
+        <v>0.4065852807223962</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.3858827375165781</v>
+        <v>1.048091635622058</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.97630485179883</v>
+        <v>1.756298484695435</v>
       </c>
       <c r="C16">
-        <v>1.274695707360138</v>
+        <v>0.3881068514492085</v>
       </c>
       <c r="D16">
-        <v>0.3167262905963071</v>
+        <v>0.2672716161445408</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.115857922018861</v>
+        <v>1.765412121459647</v>
       </c>
       <c r="G16">
-        <v>1.547558362998103</v>
+        <v>1.059105921738876</v>
       </c>
       <c r="H16">
-        <v>0.8192089508082177</v>
+        <v>0.9710226804930358</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6710602218261528</v>
+        <v>0.3967296064661809</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.411935683123982</v>
+        <v>1.058386595781975</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.758516297811639</v>
+        <v>1.698597988685492</v>
       </c>
       <c r="C17">
-        <v>1.219351258069764</v>
+        <v>0.3729908011588918</v>
       </c>
       <c r="D17">
-        <v>0.3043313158760981</v>
+        <v>0.2645176557878415</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.034982946988407</v>
+        <v>1.752402124568135</v>
       </c>
       <c r="G17">
-        <v>1.484351289310865</v>
+        <v>1.048408003096256</v>
       </c>
       <c r="H17">
-        <v>0.7933212305237589</v>
+        <v>0.9684524523579228</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6424440004345087</v>
+        <v>0.3907457647569572</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.4284142758162943</v>
+        <v>1.064847084387807</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.633862697218319</v>
+        <v>1.665451974764892</v>
       </c>
       <c r="C18">
-        <v>1.187661994522557</v>
+        <v>0.3642985579976994</v>
       </c>
       <c r="D18">
-        <v>0.2972432779348679</v>
+        <v>0.2629430588493165</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.989130012261583</v>
+        <v>1.745041707949852</v>
       </c>
       <c r="G18">
-        <v>1.448548930770642</v>
+        <v>1.042341705508477</v>
       </c>
       <c r="H18">
-        <v>0.7787121967103587</v>
+        <v>0.9670367162020455</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6261405751560716</v>
+        <v>0.3873268163838191</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.4380673426557209</v>
+        <v>1.068616143625693</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.591757398174195</v>
+        <v>1.654236478449263</v>
       </c>
       <c r="C19">
-        <v>1.176955921458614</v>
+        <v>0.361355875085053</v>
       </c>
       <c r="D19">
-        <v>0.2948501897854499</v>
+        <v>0.2624115445158139</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.973714892356369</v>
+        <v>1.742570611021222</v>
       </c>
       <c r="G19">
-        <v>1.436518227201049</v>
+        <v>1.040302638227928</v>
       </c>
       <c r="H19">
-        <v>0.7738124195949467</v>
+        <v>0.9665681066560126</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6206461921035782</v>
+        <v>0.3861731260917907</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.4413651044666942</v>
+        <v>1.069901404589437</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.781635668440913</v>
+        <v>1.704735979835789</v>
       </c>
       <c r="C20">
-        <v>1.225227624399736</v>
+        <v>0.3745997119794424</v>
       </c>
       <c r="D20">
-        <v>0.3056464481864793</v>
+        <v>0.2648098461533692</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.043522477435133</v>
+        <v>1.75377436363155</v>
       </c>
       <c r="G20">
-        <v>1.491021733760931</v>
+        <v>1.049537814952515</v>
       </c>
       <c r="H20">
-        <v>0.7960475531846782</v>
+        <v>0.9687195758825169</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6454738512809968</v>
+        <v>0.3913803931809383</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.4266418294455399</v>
+        <v>1.064153851026404</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.42730451193421</v>
+        <v>1.874906812821052</v>
       </c>
       <c r="C21">
-        <v>1.389225498138615</v>
+        <v>0.4191224683044652</v>
       </c>
       <c r="D21">
-        <v>0.3424347248639918</v>
+        <v>0.2729801267454803</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.286327259055597</v>
+        <v>1.792885174898132</v>
       </c>
       <c r="G21">
-        <v>1.681026161804994</v>
+        <v>1.081607662714248</v>
       </c>
       <c r="H21">
-        <v>0.8742391665271327</v>
+        <v>0.976697210536571</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7308387831318583</v>
+        <v>0.4091491584992042</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.3793158776346495</v>
+        <v>1.045478531491334</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.855947227748686</v>
+        <v>1.986495975228195</v>
       </c>
       <c r="C22">
-        <v>1.497993126134133</v>
+        <v>0.4482396934269559</v>
       </c>
       <c r="D22">
-        <v>0.366913434317965</v>
+        <v>0.2784033804464343</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.45194812615037</v>
+        <v>1.819547288754976</v>
       </c>
       <c r="G22">
-        <v>1.810994687704778</v>
+        <v>1.103350080518851</v>
       </c>
       <c r="H22">
-        <v>0.9282462558087445</v>
+        <v>0.9824719641947013</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7882848986895823</v>
+        <v>0.4209671076840351</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.3501043890763</v>
+        <v>1.033748206014725</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.626500477585751</v>
+        <v>1.926904605493803</v>
       </c>
       <c r="C23">
-        <v>1.439780645437793</v>
+        <v>0.4326975280156375</v>
       </c>
       <c r="D23">
-        <v>0.3538052927537052</v>
+        <v>0.2755012604182241</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.362865759422974</v>
+        <v>1.805216028179686</v>
       </c>
       <c r="G23">
-        <v>1.741053194022015</v>
+        <v>1.091673647612822</v>
       </c>
       <c r="H23">
-        <v>0.8991349730880245</v>
+        <v>0.9793383736185319</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7574594663600607</v>
+        <v>0.4146407870390618</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.3655295432798233</v>
+        <v>1.039965347328579</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.771181682161398</v>
+        <v>1.701960910660375</v>
       </c>
       <c r="C24">
-        <v>1.222570520655495</v>
+        <v>0.3738723290874759</v>
       </c>
       <c r="D24">
-        <v>0.3050517592393334</v>
+        <v>0.2646777198141876</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.039659763234269</v>
+        <v>1.753153603144639</v>
       </c>
       <c r="G24">
-        <v>1.488004364814373</v>
+        <v>1.049026765222294</v>
       </c>
       <c r="H24">
-        <v>0.7948141330412</v>
+        <v>0.9685986164905387</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6441035962484278</v>
+        <v>0.3910934115307896</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.4274425956641785</v>
+        <v>1.064467091027474</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.871462062207058</v>
+        <v>1.460919158206309</v>
       </c>
       <c r="C25">
-        <v>0.9936200445737597</v>
+        <v>0.3105001317534857</v>
       </c>
       <c r="D25">
-        <v>0.2540085868135407</v>
+        <v>0.2533626010243779</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.71596791464917</v>
+        <v>1.701677004458588</v>
       </c>
       <c r="G25">
-        <v>1.235791855969694</v>
+        <v>1.0063403881515</v>
       </c>
       <c r="H25">
-        <v>0.6928463621491119</v>
+        <v>0.9594048973478948</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5276715533144483</v>
+        <v>0.3665641422305583</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5008449359355041</v>
+        <v>1.092927603937252</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_182/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_182/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.284767783027405</v>
+        <v>3.223032265527706</v>
       </c>
       <c r="C2">
-        <v>0.2638960490923239</v>
+        <v>0.8282079164391689</v>
       </c>
       <c r="D2">
-        <v>0.2453400986128003</v>
+        <v>0.217434667460779</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.667739334718291</v>
+        <v>1.494382634657455</v>
       </c>
       <c r="G2">
-        <v>0.9777017153308094</v>
+        <v>1.063928085320939</v>
       </c>
       <c r="H2">
-        <v>0.9546698591763203</v>
+        <v>0.6249953612951629</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3492363118898965</v>
+        <v>0.4457350765789556</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.115625055482166</v>
+        <v>0.5598605535042402</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.166196123525538</v>
+        <v>2.789907460110044</v>
       </c>
       <c r="C3">
-        <v>0.2323419556084332</v>
+        <v>0.7174670376859353</v>
       </c>
       <c r="D3">
-        <v>0.2400956524805054</v>
+        <v>0.1931399407529142</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.647182596362242</v>
+        <v>1.352636097490731</v>
       </c>
       <c r="G3">
-        <v>0.9600047766263344</v>
+        <v>0.9543653327083064</v>
       </c>
       <c r="H3">
-        <v>0.9527192173408849</v>
+        <v>0.5827227299783999</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3379428821024959</v>
+        <v>0.3920439878531425</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.132091594119473</v>
+        <v>0.6026438189084811</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.093786557672786</v>
+        <v>2.526377263874394</v>
       </c>
       <c r="C4">
-        <v>0.2129811081162245</v>
+        <v>0.6499651933786481</v>
       </c>
       <c r="D4">
-        <v>0.2369705582724606</v>
+        <v>0.1784253629038801</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.635756539032968</v>
+        <v>1.269165753448803</v>
       </c>
       <c r="G4">
-        <v>0.949973871096347</v>
+        <v>0.8899976870151107</v>
       </c>
       <c r="H4">
-        <v>0.9521388886133764</v>
+        <v>0.5583637444082967</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3312283164755172</v>
+        <v>0.3598303874823756</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.142736083101809</v>
+        <v>0.6301959644022475</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.064378089576508</v>
+        <v>2.419497567491078</v>
       </c>
       <c r="C5">
-        <v>0.2050947716413134</v>
+        <v>0.622558003028729</v>
       </c>
       <c r="D5">
-        <v>0.2357209969206622</v>
+        <v>0.1724745953833917</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.631399869335127</v>
+        <v>1.235966189416857</v>
       </c>
       <c r="G5">
-        <v>0.9460949653806239</v>
+        <v>0.864428987703505</v>
       </c>
       <c r="H5">
-        <v>0.952057214960206</v>
+        <v>0.5488069109527203</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.328547053159582</v>
+        <v>0.3468716474271361</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.147207913221489</v>
+        <v>0.6417335659292238</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.059500815836202</v>
+        <v>2.40177849552731</v>
       </c>
       <c r="C6">
-        <v>0.2037854541345325</v>
+        <v>0.6180124630371608</v>
       </c>
       <c r="D6">
-        <v>0.2355149555389602</v>
+        <v>0.1714890762651038</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.630694505255192</v>
+        <v>1.230500424579375</v>
       </c>
       <c r="G6">
-        <v>0.9454634496840413</v>
+        <v>0.8602213733983461</v>
       </c>
       <c r="H6">
-        <v>0.9520529911085163</v>
+        <v>0.5472414459716077</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3281051444963339</v>
+        <v>0.3447294620117844</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.147958552934494</v>
+        <v>0.6436677367807011</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.093389543902276</v>
+        <v>2.524933898326594</v>
       </c>
       <c r="C7">
-        <v>0.2128747366235473</v>
+        <v>0.6495951940855491</v>
       </c>
       <c r="D7">
-        <v>0.2369536092544138</v>
+        <v>0.1783449311778327</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.635696572182468</v>
+        <v>1.268714813654611</v>
       </c>
       <c r="G7">
-        <v>0.9499207151335014</v>
+        <v>0.8896502667487169</v>
       </c>
       <c r="H7">
-        <v>0.9521371608688725</v>
+        <v>0.5582334012598125</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3311919337547948</v>
+        <v>0.3596549651773984</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.142795848954307</v>
+        <v>0.6303503260044341</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.243802453991123</v>
+        <v>3.073130960438391</v>
       </c>
       <c r="C8">
-        <v>0.253013369832729</v>
+        <v>0.789907116351344</v>
       </c>
       <c r="D8">
-        <v>0.2435121186358202</v>
+        <v>0.2090124484863622</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.660402453313665</v>
+        <v>1.444718577343309</v>
       </c>
       <c r="G8">
-        <v>0.9714257447774912</v>
+        <v>1.025505072885252</v>
       </c>
       <c r="H8">
-        <v>0.9538688796606607</v>
+        <v>0.6100684700825383</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3452965912638462</v>
+        <v>0.4270530914346296</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.121191799347397</v>
+        <v>0.5743379567121725</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.541905582293566</v>
+        <v>4.172004902907361</v>
       </c>
       <c r="C9">
-        <v>0.3318376098266356</v>
+        <v>1.070162509588272</v>
       </c>
       <c r="D9">
-        <v>0.2571261240847065</v>
+        <v>0.2710260132663507</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.718397135132378</v>
+        <v>1.822111266001386</v>
       </c>
       <c r="G9">
-        <v>1.020281844194045</v>
+        <v>1.318352459490143</v>
       </c>
       <c r="H9">
-        <v>0.9621843780062136</v>
+        <v>0.725956817041407</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3747119994741297</v>
+        <v>0.5662267523517812</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.083069679409995</v>
+        <v>0.4753023168980945</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.762888176602587</v>
+        <v>5.001242921797939</v>
       </c>
       <c r="C10">
-        <v>0.3898319845499145</v>
+        <v>1.281031312938467</v>
       </c>
       <c r="D10">
-        <v>0.2675871360690394</v>
+        <v>0.318146448720114</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.766913295415279</v>
+        <v>2.125179592718638</v>
       </c>
       <c r="G10">
-        <v>1.060338430799675</v>
+        <v>1.5548484053962</v>
       </c>
       <c r="H10">
-        <v>0.9713244547019428</v>
+        <v>0.8222022754736429</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3974155006022357</v>
+        <v>0.6743475083411852</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.0576566177925</v>
+        <v>0.4100795918019458</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.863858268641138</v>
+        <v>5.38509781285461</v>
       </c>
       <c r="C11">
-        <v>0.4162363507829809</v>
+        <v>1.378511375077267</v>
       </c>
       <c r="D11">
-        <v>0.2724458327740535</v>
+        <v>0.3400266483462104</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.790286827347458</v>
+        <v>2.270206589364591</v>
       </c>
       <c r="G11">
-        <v>1.079484097221268</v>
+        <v>1.668391071507443</v>
       </c>
       <c r="H11">
-        <v>0.9761476343954598</v>
+        <v>0.8690098556382395</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4079858486428236</v>
+        <v>0.7252152154265588</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.046661003886914</v>
+        <v>0.3822850047396038</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.902157381051666</v>
+        <v>5.53158169351741</v>
       </c>
       <c r="C12">
-        <v>0.4262383725887844</v>
+        <v>1.41569275756973</v>
       </c>
       <c r="D12">
-        <v>0.2743000448542432</v>
+        <v>0.3483859816867181</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.799326646775</v>
+        <v>2.326300907812168</v>
       </c>
       <c r="G12">
-        <v>1.086868354273776</v>
+        <v>1.712368699752801</v>
       </c>
       <c r="H12">
-        <v>0.978070256937059</v>
+        <v>0.8872276682255631</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4120237623592686</v>
+        <v>0.7447580333314789</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.042578687994244</v>
+        <v>0.372052506766007</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.893906137088493</v>
+        <v>5.499980700861272</v>
       </c>
       <c r="C13">
-        <v>0.4240841125620136</v>
+        <v>1.407672408423934</v>
       </c>
       <c r="D13">
-        <v>0.2739000704495567</v>
+        <v>0.3465821998641019</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.797371342519966</v>
+        <v>2.314165187597737</v>
       </c>
       <c r="G13">
-        <v>1.085272031364013</v>
+        <v>1.702851537843543</v>
       </c>
       <c r="H13">
-        <v>0.9776518994225682</v>
+        <v>0.8832812250502116</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4111525572632928</v>
+        <v>0.7405360103758909</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.043454259649842</v>
+        <v>0.3742428456046198</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.8670078778689</v>
+        <v>5.397125492706891</v>
       </c>
       <c r="C14">
-        <v>0.4170591575513072</v>
+        <v>1.381564669988904</v>
       </c>
       <c r="D14">
-        <v>0.2725980929707248</v>
+        <v>0.3407128368462509</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.791026747662983</v>
+        <v>2.274797040115914</v>
       </c>
       <c r="G14">
-        <v>1.080088906818077</v>
+        <v>1.671988701334556</v>
       </c>
       <c r="H14">
-        <v>0.9763038789491247</v>
+        <v>0.8704984141685088</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.408317344032298</v>
+        <v>0.7268171607324518</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.046323514770865</v>
+        <v>0.3814371635705776</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.850540245804893</v>
+        <v>5.334275872012199</v>
       </c>
       <c r="C15">
-        <v>0.4127565956366652</v>
+        <v>1.365609206585532</v>
       </c>
       <c r="D15">
-        <v>0.271802459056218</v>
+        <v>0.3371276010850721</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.787165124137289</v>
+        <v>2.25084066152553</v>
       </c>
       <c r="G15">
-        <v>1.076931612397459</v>
+        <v>1.65321608658121</v>
       </c>
       <c r="H15">
-        <v>0.9754907196145268</v>
+        <v>0.8627345818833021</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4065852807223962</v>
+        <v>0.7184516913029455</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.048091635622058</v>
+        <v>0.3858827375165284</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.756298484695435</v>
+        <v>4.976304851798943</v>
       </c>
       <c r="C16">
-        <v>0.3881068514492085</v>
+        <v>1.274695707360195</v>
       </c>
       <c r="D16">
-        <v>0.2672716161445408</v>
+        <v>0.3167262905962076</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.765412121459647</v>
+        <v>2.115857922018876</v>
       </c>
       <c r="G16">
-        <v>1.059105921738876</v>
+        <v>1.547558362998018</v>
       </c>
       <c r="H16">
-        <v>0.9710226804930358</v>
+        <v>0.8192089508082177</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3967296064661809</v>
+        <v>0.6710602218261101</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.058386595781975</v>
+        <v>0.4119356831239998</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.698597988685492</v>
+        <v>4.758516297811695</v>
       </c>
       <c r="C17">
-        <v>0.3729908011588918</v>
+        <v>1.219351258069878</v>
       </c>
       <c r="D17">
-        <v>0.2645176557878415</v>
+        <v>0.3043313158760839</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.752402124568135</v>
+        <v>2.034982946988421</v>
       </c>
       <c r="G17">
-        <v>1.048408003096256</v>
+        <v>1.484351289310894</v>
       </c>
       <c r="H17">
-        <v>0.9684524523579228</v>
+        <v>0.7933212305237589</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3907457647569572</v>
+        <v>0.6424440004345087</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.064847084387807</v>
+        <v>0.4284142758162872</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.665451974764892</v>
+        <v>4.633862697218433</v>
       </c>
       <c r="C18">
-        <v>0.3642985579976994</v>
+        <v>1.1876619945225</v>
       </c>
       <c r="D18">
-        <v>0.2629430588493165</v>
+        <v>0.2972432779348679</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.745041707949852</v>
+        <v>1.989130012261597</v>
       </c>
       <c r="G18">
-        <v>1.042341705508477</v>
+        <v>1.448548930770613</v>
       </c>
       <c r="H18">
-        <v>0.9670367162020455</v>
+        <v>0.7787121967102451</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3873268163838191</v>
+        <v>0.6261405751559863</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.068616143625693</v>
+        <v>0.4380673426556534</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.654236478449263</v>
+        <v>4.591757398174082</v>
       </c>
       <c r="C19">
-        <v>0.361355875085053</v>
+        <v>1.176955921458614</v>
       </c>
       <c r="D19">
-        <v>0.2624115445158139</v>
+        <v>0.2948501897853504</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.742570611021222</v>
+        <v>1.973714892356369</v>
       </c>
       <c r="G19">
-        <v>1.040302638227928</v>
+        <v>1.436518227201049</v>
       </c>
       <c r="H19">
-        <v>0.9665681066560126</v>
+        <v>0.7738124195949467</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3861731260917907</v>
+        <v>0.6206461921035782</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.069901404589437</v>
+        <v>0.44136510446668</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.704735979835789</v>
+        <v>4.781635668440913</v>
       </c>
       <c r="C20">
-        <v>0.3745997119794424</v>
+        <v>1.225227624399736</v>
       </c>
       <c r="D20">
-        <v>0.2648098461533692</v>
+        <v>0.3056464481863799</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.75377436363155</v>
+        <v>2.043522477435161</v>
       </c>
       <c r="G20">
-        <v>1.049537814952515</v>
+        <v>1.491021733760931</v>
       </c>
       <c r="H20">
-        <v>0.9687195758825169</v>
+        <v>0.7960475531848203</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3913803931809383</v>
+        <v>0.6454738512809683</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.064153851026404</v>
+        <v>0.4266418294455363</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.874906812821052</v>
+        <v>5.42730451193421</v>
       </c>
       <c r="C21">
-        <v>0.4191224683044652</v>
+        <v>1.389225498138671</v>
       </c>
       <c r="D21">
-        <v>0.2729801267454803</v>
+        <v>0.3424347248637645</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.792885174898132</v>
+        <v>2.286327259055597</v>
       </c>
       <c r="G21">
-        <v>1.081607662714248</v>
+        <v>1.681026161804965</v>
       </c>
       <c r="H21">
-        <v>0.976697210536571</v>
+        <v>0.8742391665271327</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4091491584992042</v>
+        <v>0.7308387831318157</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.045478531491334</v>
+        <v>0.3793158776346068</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.986495975228195</v>
+        <v>5.855947227748629</v>
       </c>
       <c r="C22">
-        <v>0.4482396934269559</v>
+        <v>1.497993126133963</v>
       </c>
       <c r="D22">
-        <v>0.2784033804464343</v>
+        <v>0.3669134343178655</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.819547288754976</v>
+        <v>2.45194812615037</v>
       </c>
       <c r="G22">
-        <v>1.103350080518851</v>
+        <v>1.810994687704721</v>
       </c>
       <c r="H22">
-        <v>0.9824719641947013</v>
+        <v>0.9282462558088298</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4209671076840351</v>
+        <v>0.788284898689497</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.033748206014725</v>
+        <v>0.3501043890763604</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.926904605493803</v>
+        <v>5.626500477585807</v>
       </c>
       <c r="C23">
-        <v>0.4326975280156375</v>
+        <v>1.439780645437907</v>
       </c>
       <c r="D23">
-        <v>0.2755012604182241</v>
+        <v>0.3538052927537905</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.805216028179686</v>
+        <v>2.362865759422988</v>
       </c>
       <c r="G23">
-        <v>1.091673647612822</v>
+        <v>1.741053194022044</v>
       </c>
       <c r="H23">
-        <v>0.9793383736185319</v>
+        <v>0.8991349730880245</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4146407870390618</v>
+        <v>0.7574594663601033</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.039965347328579</v>
+        <v>0.3655295432798198</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.701960910660375</v>
+        <v>4.771181682161398</v>
       </c>
       <c r="C24">
-        <v>0.3738723290874759</v>
+        <v>1.222570520655495</v>
       </c>
       <c r="D24">
-        <v>0.2646777198141876</v>
+        <v>0.3050517592394328</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.753153603144639</v>
+        <v>2.039659763234269</v>
       </c>
       <c r="G24">
-        <v>1.049026765222294</v>
+        <v>1.488004364814344</v>
       </c>
       <c r="H24">
-        <v>0.9685986164905387</v>
+        <v>0.7948141330412</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3910934115307896</v>
+        <v>0.6441035962483852</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.064467091027474</v>
+        <v>0.4274425956641643</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.460919158206309</v>
+        <v>3.871462062207115</v>
       </c>
       <c r="C25">
-        <v>0.3105001317534857</v>
+        <v>0.9936200445739019</v>
       </c>
       <c r="D25">
-        <v>0.2533626010243779</v>
+        <v>0.2540085868136401</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.701677004458588</v>
+        <v>1.715967914649156</v>
       </c>
       <c r="G25">
-        <v>1.0063403881515</v>
+        <v>1.235791855969637</v>
       </c>
       <c r="H25">
-        <v>0.9594048973478948</v>
+        <v>0.6928463621492256</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3665641422305583</v>
+        <v>0.5276715533144767</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.092927603937252</v>
+        <v>0.5008449359355112</v>
       </c>
       <c r="O25">
         <v>0</v>
